--- a/Project1_report/Graphs/Results.xlsx
+++ b/Project1_report/Graphs/Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Birgitte\Desktop\Project1\Graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Birgitte\Documents\GitHub\Project1\Project1_report\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44934,13 +44934,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -44982,11 +44985,11 @@
         <v>100</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B6" si="0">1/(A5+1)</f>
+        <f t="shared" ref="B5:B8" si="0">1/(A5+1)</f>
         <v>9.9009900990099011E-3</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C6" si="1">LOG(B5)</f>
+        <f t="shared" ref="C5:C8" si="1">LOG(B5)</f>
         <v>-2.0043213737826426</v>
       </c>
       <c r="D5">
@@ -45007,6 +45010,78 @@
       </c>
       <c r="D6">
         <v>-5.08005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>9.9990000999900015E-5</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>-4.0000434272768626</v>
+      </c>
+      <c r="D7">
+        <v>-7.0793400000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>100000</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>9.9999000009999908E-6</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>-5.0000043429231047</v>
+      </c>
+      <c r="D8">
+        <v>-8.8879999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="C10">
+        <v>-1.0413926851582249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>9.9009900990098994E-3</v>
+      </c>
+      <c r="C11">
+        <v>-2.0043213737826426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="C12">
+        <v>-3.0004340774793188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>9.9990000999900002E-5</v>
+      </c>
+      <c r="C13">
+        <v>-4.0000434272768626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>9.9999000009999908E-6</v>
+      </c>
+      <c r="C14">
+        <v>-5.0000043429231047</v>
       </c>
     </row>
   </sheetData>
